--- a/files/d7927e1c-6611-47a9-a7ea-2615a207f5f3_gt.xlsx
+++ b/files/d7927e1c-6611-47a9-a7ea-2615a207f5f3_gt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -29,23 +29,58 @@
   </si>
   <si>
     <t xml:space="preserve">in millions (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.00,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500.00,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150000.00,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.00,M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15000000.00,K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15000.00,M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00,&quot;,K&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00,,&quot;,M&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,6 +110,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -86,12 +128,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -125,20 +182,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -150,6 +207,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF9A9A9A"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -334,101 +451,101 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>150000000</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>150000000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>15000000000</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>15000000000</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>15000000000</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
